--- a/biology/Médecine/Muscle_rhomboïde/Muscle_rhomboïde.xlsx
+++ b/biology/Médecine/Muscle_rhomboïde/Muscle_rhomboïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_rhombo%C3%AFde</t>
+          <t>Muscle_rhomboïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle rhomboïde est le nom donné à l'ensemble des muscles petit et grand rhomboïde.
-Ce sont des muscles thoraciques dorsaux, pairs, plats et de forme losangique. Ils se situent entre le rachis et la scapula. Les rhomboïdes font partie des muscles dorsaux superficiels (comme le trapèze et l'élévateur de la scapula), cependant, ils sont situés en profondeur, en dessous du trapèze[1]. Les rhomboïdes s'insèrent sur les vertèbres allant de C7 à T5 et permettent de créer un mouvement de translation ou de rotation médiale de la scapula si le rachis est le point fixe. 
+Ce sont des muscles thoraciques dorsaux, pairs, plats et de forme losangique. Ils se situent entre le rachis et la scapula. Les rhomboïdes font partie des muscles dorsaux superficiels (comme le trapèze et l'élévateur de la scapula), cependant, ils sont situés en profondeur, en dessous du trapèze. Les rhomboïdes s'insèrent sur les vertèbres allant de C7 à T5 et permettent de créer un mouvement de translation ou de rotation médiale de la scapula si le rachis est le point fixe. 
 Il tient son nom de sa forme rhomboïde.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_rhombo%C3%AFde</t>
+          <t>Muscle_rhomboïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Petit rhomboïde:
 Origine: partie basse du ligament nucal, apex des processus épineux de C7 à T1
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_rhombo%C3%AFde</t>
+          <t>Muscle_rhomboïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lorsque le rachis est considéré comme fixe, les actions des muscles rhomboïdes sont  : 
 adduction de la scapula
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_rhombo%C3%AFde</t>
+          <t>Muscle_rhomboïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf du rhomboide angulaire, issu du plexus brachial des racines nerveuses C4 et C5.
 </t>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_rhombo%C3%AFde</t>
+          <t>Muscle_rhomboïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par l'artère scapulaire dorsale.
 </t>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_rhombo%C3%AFde</t>
+          <t>Muscle_rhomboïde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>Muscle antagoniste</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Muscle dentelé antérieur</t>
         </is>
@@ -660,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_rhombo%C3%AFde</t>
+          <t>Muscle_rhomboïde</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,9 +700,11 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le petit et le grand rhomboïde interviennent comme muscles stabilisateurs dans l'exercice du soulevé de terre[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit et le grand rhomboïde interviennent comme muscles stabilisateurs dans l'exercice du soulevé de terre.
 </t>
         </is>
       </c>
